--- a/notebooks/Data/Star_Wars_Episode_III_Revenge_of_the_Sith/centrality.xlsx
+++ b/notebooks/Data/Star_Wars_Episode_III_Revenge_of_the_Sith/centrality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>betweenness_centrality</t>
   </si>
@@ -28,60 +28,66 @@
     <t>eigenvector_centrality</t>
   </si>
   <si>
+    <t>in_degree</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
+    <t>out_degree</t>
+  </si>
+  <si>
     <t>Faya</t>
   </si>
   <si>
     <t>Gregar Typho</t>
   </si>
   <si>
+    <t>Zett Jukassa</t>
+  </si>
+  <si>
+    <t>Leia Organa</t>
+  </si>
+  <si>
+    <t>Sly Moore</t>
+  </si>
+  <si>
+    <t>Luminara Unduli</t>
+  </si>
+  <si>
+    <t>Passel Argente</t>
+  </si>
+  <si>
+    <t>Jag</t>
+  </si>
+  <si>
+    <t>Bana Breemu</t>
+  </si>
+  <si>
+    <t>Umé</t>
+  </si>
+  <si>
+    <t>Neb Creip</t>
+  </si>
+  <si>
+    <t>J'oopi Shé</t>
+  </si>
+  <si>
+    <t>Meena Tills</t>
+  </si>
+  <si>
+    <t>Tion Medon</t>
+  </si>
+  <si>
+    <t>Giddean Danu</t>
+  </si>
+  <si>
+    <t>Barrow Oicunn</t>
+  </si>
+  <si>
     <t>Ask Aak</t>
   </si>
   <si>
-    <t>Leia Organa</t>
-  </si>
-  <si>
-    <t>Sly Moore</t>
-  </si>
-  <si>
-    <t>Luminara Unduli</t>
-  </si>
-  <si>
-    <t>Passel Argente</t>
-  </si>
-  <si>
-    <t>Jag</t>
-  </si>
-  <si>
-    <t>Bana Breemu</t>
-  </si>
-  <si>
-    <t>Umé</t>
-  </si>
-  <si>
-    <t>Neb Creip</t>
-  </si>
-  <si>
-    <t>J'oopi Shé</t>
-  </si>
-  <si>
-    <t>Meena Tills</t>
-  </si>
-  <si>
-    <t>Tion Medon</t>
-  </si>
-  <si>
-    <t>Giddean Danu</t>
-  </si>
-  <si>
-    <t>Barrow Oicunn</t>
-  </si>
-  <si>
-    <t>Zett Jukassa</t>
-  </si>
-  <si>
     <t>Bail Organa</t>
   </si>
   <si>
@@ -286,157 +292,157 @@
     <t>Tundra Dowmeia</t>
   </si>
   <si>
+    <t>Teta (Duke)</t>
+  </si>
+  <si>
+    <t>Dznori Xam</t>
+  </si>
+  <si>
     <t>Wat Tambor</t>
   </si>
   <si>
-    <t>Dznori Xam</t>
-  </si>
-  <si>
-    <t>Teta (Duke)</t>
-  </si>
-  <si>
     <t>Agen Kolar</t>
   </si>
   <si>
     <t>Eeusu Estornii</t>
   </si>
   <si>
+    <t>Shaak Ti</t>
+  </si>
+  <si>
+    <t>Ryoo Naberrie</t>
+  </si>
+  <si>
+    <t>Pooja Naberrie</t>
+  </si>
+  <si>
+    <t>CC-1004</t>
+  </si>
+  <si>
+    <t>CC-1138</t>
+  </si>
+  <si>
+    <t>Quinlan Vos</t>
+  </si>
+  <si>
+    <t>Terr Taneel</t>
+  </si>
+  <si>
+    <t>Waks Trode</t>
+  </si>
+  <si>
+    <t>Koyi Mateil</t>
+  </si>
+  <si>
+    <t>CC-5052</t>
+  </si>
+  <si>
+    <t>Owen Lars</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>Shmi Skywalker Lars</t>
+  </si>
+  <si>
+    <t>Tarfful</t>
+  </si>
+  <si>
+    <t>R4-G9</t>
+  </si>
+  <si>
+    <t>Sio Bibble</t>
+  </si>
+  <si>
+    <t>Sistros</t>
+  </si>
+  <si>
+    <t>Jobal Naberrie</t>
+  </si>
+  <si>
+    <t>Orn Free Taa</t>
+  </si>
+  <si>
+    <t>Darth Sidious</t>
+  </si>
+  <si>
+    <t>Greeata Jendowanian</t>
+  </si>
+  <si>
+    <t>Malé-Dee</t>
+  </si>
+  <si>
+    <t>Melik Galerha</t>
+  </si>
+  <si>
+    <t>Grakchawwaa</t>
+  </si>
+  <si>
+    <t>CT-0000/1010</t>
+  </si>
+  <si>
+    <t>0D31</t>
+  </si>
+  <si>
+    <t>Stass Allie</t>
+  </si>
+  <si>
+    <t>Papanoida</t>
+  </si>
+  <si>
+    <t>Kit Fisto</t>
+  </si>
+  <si>
+    <t>Eugroothwa</t>
+  </si>
+  <si>
+    <t>Fang Zar</t>
+  </si>
+  <si>
+    <t>Coleman Kcaj</t>
+  </si>
+  <si>
+    <t>Rune Haako</t>
+  </si>
+  <si>
+    <t>Luke Skywalker</t>
+  </si>
+  <si>
+    <t>CC-4477</t>
+  </si>
+  <si>
+    <t>Shu Mai</t>
+  </si>
+  <si>
+    <t>Nank Tun</t>
+  </si>
+  <si>
+    <t>CC-1119</t>
+  </si>
+  <si>
+    <t>Salporin</t>
+  </si>
+  <si>
+    <t>Yanjon</t>
+  </si>
+  <si>
+    <t>Janu Godalhi</t>
+  </si>
+  <si>
+    <t>CC-2237</t>
+  </si>
+  <si>
+    <t>Sateen Vestswe</t>
+  </si>
+  <si>
+    <t>Wilhuff Tarkin</t>
+  </si>
+  <si>
+    <t>Mon Mothma</t>
+  </si>
+  <si>
     <t>Sheltay Retrac</t>
-  </si>
-  <si>
-    <t>Ryoo Naberrie</t>
-  </si>
-  <si>
-    <t>Pooja Naberrie</t>
-  </si>
-  <si>
-    <t>CC-1004</t>
-  </si>
-  <si>
-    <t>CC-1138</t>
-  </si>
-  <si>
-    <t>Quinlan Vos</t>
-  </si>
-  <si>
-    <t>Terr Taneel</t>
-  </si>
-  <si>
-    <t>Waks Trode</t>
-  </si>
-  <si>
-    <t>Koyi Mateil</t>
-  </si>
-  <si>
-    <t>CC-5052</t>
-  </si>
-  <si>
-    <t>Owen Lars</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>Shmi Skywalker Lars</t>
-  </si>
-  <si>
-    <t>Tarfful</t>
-  </si>
-  <si>
-    <t>R4-G9</t>
-  </si>
-  <si>
-    <t>Sio Bibble</t>
-  </si>
-  <si>
-    <t>Sistros</t>
-  </si>
-  <si>
-    <t>Jobal Naberrie</t>
-  </si>
-  <si>
-    <t>Orn Free Taa</t>
-  </si>
-  <si>
-    <t>Darth Sidious</t>
-  </si>
-  <si>
-    <t>Greeata Jendowanian</t>
-  </si>
-  <si>
-    <t>Malé-Dee</t>
-  </si>
-  <si>
-    <t>Melik Galerha</t>
-  </si>
-  <si>
-    <t>Grakchawwaa</t>
-  </si>
-  <si>
-    <t>CT-0000/1010</t>
-  </si>
-  <si>
-    <t>0D31</t>
-  </si>
-  <si>
-    <t>Stass Allie</t>
-  </si>
-  <si>
-    <t>Papanoida</t>
-  </si>
-  <si>
-    <t>Kit Fisto</t>
-  </si>
-  <si>
-    <t>Eugroothwa</t>
-  </si>
-  <si>
-    <t>Fang Zar</t>
-  </si>
-  <si>
-    <t>Coleman Kcaj</t>
-  </si>
-  <si>
-    <t>Rune Haako</t>
-  </si>
-  <si>
-    <t>Luke Skywalker</t>
-  </si>
-  <si>
-    <t>CC-4477</t>
-  </si>
-  <si>
-    <t>Shu Mai</t>
-  </si>
-  <si>
-    <t>Nank Tun</t>
-  </si>
-  <si>
-    <t>CC-1119</t>
-  </si>
-  <si>
-    <t>Salporin</t>
-  </si>
-  <si>
-    <t>Yanjon</t>
-  </si>
-  <si>
-    <t>Janu Godalhi</t>
-  </si>
-  <si>
-    <t>CC-2237</t>
-  </si>
-  <si>
-    <t>Sateen Vestswe</t>
-  </si>
-  <si>
-    <t>Wilhuff Tarkin</t>
-  </si>
-  <si>
-    <t>Mon Mothma</t>
-  </si>
-  <si>
-    <t>Shaak Ti</t>
   </si>
   <si>
     <t>Cat Miin</t>
@@ -815,13 +821,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -837,8 +843,14 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -852,13 +864,19 @@
         <v>0.02112676056338028</v>
       </c>
       <c r="E2">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -866,24 +884,30 @@
         <v>4.05926030386183e-05</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>0.09859154929577466</v>
+        <v>0.09154929577464789</v>
       </c>
       <c r="E3">
-        <v>0.06692254054196604</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.05445675274586535</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0003348901123848682</v>
+        <v>0.006255618819298771</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -892,18 +916,24 @@
         <v>0.04929577464788733</v>
       </c>
       <c r="E4">
-        <v>0.004960050648673557</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.009214527369336327</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.009736369998700175</v>
+        <v>0.009740200838611325</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -912,13 +942,19 @@
         <v>0.2816901408450704</v>
       </c>
       <c r="E5">
-        <v>0.1399608188418526</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.1414477641398288</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -932,18 +968,24 @@
         <v>0.07042253521126761</v>
       </c>
       <c r="E6">
-        <v>0.00531408152180701</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.005435561396874225</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.002191424035062442</v>
+        <v>0.002210685882107072</v>
       </c>
       <c r="C7">
         <v>24</v>
@@ -952,18 +994,24 @@
         <v>0.1690140845070423</v>
       </c>
       <c r="E7">
-        <v>0.09585979912035612</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.09671460045588728</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.004045549895115372</v>
+        <v>0.004045549895115373</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -972,13 +1020,19 @@
         <v>0.04929577464788733</v>
       </c>
       <c r="E8">
-        <v>1.66470471349875e-12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1.772668813263731e-12</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -992,13 +1046,19 @@
         <v>0.01408450704225352</v>
       </c>
       <c r="E9">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1012,13 +1072,19 @@
         <v>0.007042253521126761</v>
       </c>
       <c r="E10">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1032,13 +1098,19 @@
         <v>0.02112676056338028</v>
       </c>
       <c r="E11">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1052,13 +1124,19 @@
         <v>0.007042253521126761</v>
       </c>
       <c r="E12">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1072,33 +1150,45 @@
         <v>0.04929577464788733</v>
       </c>
       <c r="E13">
-        <v>3.27663828757959e-09</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>3.489144025147002e-09</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.01256561223271755</v>
+        <v>0.01257494540057634</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>0.05633802816901409</v>
+        <v>0.04929577464788733</v>
       </c>
       <c r="E14">
-        <v>0.0275485316252442</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.01448746942849789</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1112,13 +1202,19 @@
         <v>0.02112676056338028</v>
       </c>
       <c r="E15">
-        <v>1.66470471349875e-12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>1.772668813263731e-12</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1132,13 +1228,19 @@
         <v>0.007042253521126761</v>
       </c>
       <c r="E16">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1152,18 +1254,24 @@
         <v>0.007042253521126761</v>
       </c>
       <c r="E17">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.006255618819298771</v>
+        <v>0.0003405188414178525</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -1172,18 +1280,24 @@
         <v>0.04929577464788733</v>
       </c>
       <c r="E18">
-        <v>0.009042518371504129</v>
-      </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0.005073025570724388</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.02617352474177273</v>
+        <v>0.02647670467284745</v>
       </c>
       <c r="C19">
         <v>48</v>
@@ -1192,18 +1306,24 @@
         <v>0.3380281690140845</v>
       </c>
       <c r="E19">
-        <v>0.1770448756337069</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.1789890034974297</v>
+      </c>
+      <c r="F19">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.0005503354188733651</v>
+        <v>0.0006091219792287878</v>
       </c>
       <c r="C20">
         <v>24</v>
@@ -1212,13 +1332,19 @@
         <v>0.1690140845070423</v>
       </c>
       <c r="E20">
-        <v>0.0945367714618643</v>
-      </c>
-      <c r="F20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.09559934270049926</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1232,18 +1358,24 @@
         <v>0.05633802816901409</v>
       </c>
       <c r="E21">
-        <v>4.363923524154162e-08</v>
-      </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>4.646944933842074e-08</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.003099140576833868</v>
+        <v>0.003099447796831007</v>
       </c>
       <c r="C22">
         <v>35</v>
@@ -1252,13 +1384,19 @@
         <v>0.2464788732394366</v>
       </c>
       <c r="E22">
-        <v>0.1195015979871988</v>
-      </c>
-      <c r="F22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.1212612187352441</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1272,13 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1292,18 +1436,24 @@
         <v>0.1197183098591549</v>
       </c>
       <c r="E24">
-        <v>0.05780756236846644</v>
-      </c>
-      <c r="F24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.05885063677453309</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.007903294406420803</v>
+        <v>0.007894505373058799</v>
       </c>
       <c r="C25">
         <v>18</v>
@@ -1312,13 +1462,19 @@
         <v>0.1267605633802817</v>
       </c>
       <c r="E25">
-        <v>0.05372864535974219</v>
-      </c>
-      <c r="F25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.05460153584238551</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1332,18 +1488,24 @@
         <v>0.0352112676056338</v>
       </c>
       <c r="E26">
-        <v>3.27663828757959e-09</v>
-      </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>3.489144025147002e-09</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.004244600339352955</v>
+        <v>0.004239266660325046</v>
       </c>
       <c r="C27">
         <v>41</v>
@@ -1352,13 +1514,19 @@
         <v>0.2887323943661972</v>
       </c>
       <c r="E27">
-        <v>0.1686011797036314</v>
-      </c>
-      <c r="F27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.1698786606999852</v>
+      </c>
+      <c r="F27">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1372,18 +1540,24 @@
         <v>0.02816901408450704</v>
       </c>
       <c r="E28">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.08754505871383991</v>
+        <v>0.1030108667617477</v>
       </c>
       <c r="C29">
         <v>108</v>
@@ -1392,18 +1566,24 @@
         <v>0.7605633802816901</v>
       </c>
       <c r="E29">
-        <v>0.2829707868978073</v>
-      </c>
-      <c r="F29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.2814159970684101</v>
+      </c>
+      <c r="F29">
+        <v>66</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.02087095941007753</v>
+        <v>0.02114776159877662</v>
       </c>
       <c r="C30">
         <v>38</v>
@@ -1412,13 +1592,19 @@
         <v>0.2676056338028169</v>
       </c>
       <c r="E30">
-        <v>0.1366781362892975</v>
-      </c>
-      <c r="F30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1384835330961765</v>
+      </c>
+      <c r="F30">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1432,13 +1618,19 @@
         <v>0.04225352112676056</v>
       </c>
       <c r="E31">
-        <v>0.002737058136600474</v>
-      </c>
-      <c r="F31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.002803528540589476</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1452,18 +1644,24 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.0002609436756874575</v>
+        <v>0.0002595466110599464</v>
       </c>
       <c r="C33">
         <v>17</v>
@@ -1472,13 +1670,19 @@
         <v>0.1197183098591549</v>
       </c>
       <c r="E33">
-        <v>0.04614171015071215</v>
-      </c>
-      <c r="F33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.04692121987464136</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1492,18 +1696,24 @@
         <v>0.01408450704225352</v>
       </c>
       <c r="E34">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.01255635846023919</v>
+        <v>0.01260917914536434</v>
       </c>
       <c r="C35">
         <v>12</v>
@@ -1512,33 +1722,45 @@
         <v>0.08450704225352113</v>
       </c>
       <c r="E35">
-        <v>0.02762794842850139</v>
-      </c>
-      <c r="F35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.02796723433206175</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.0009523776317435648</v>
+        <v>0.0009883483812162268</v>
       </c>
       <c r="C36">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>0.147887323943662</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="E36">
-        <v>0.09707477363338389</v>
-      </c>
-      <c r="F36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.084683981514627</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1552,13 +1774,19 @@
         <v>0.05633802816901409</v>
       </c>
       <c r="E37">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1572,13 +1800,19 @@
         <v>0.07042253521126761</v>
       </c>
       <c r="E38">
-        <v>0.01424846252760566</v>
-      </c>
-      <c r="F38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.01441215570447869</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1592,13 +1826,19 @@
         <v>0.04929577464788733</v>
       </c>
       <c r="E39">
-        <v>0.005056491633590342</v>
-      </c>
-      <c r="F39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.00517010020359389</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1612,18 +1852,24 @@
         <v>0.01408450704225352</v>
       </c>
       <c r="E40">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.06551143469750875</v>
+        <v>0.06647462340930102</v>
       </c>
       <c r="C41">
         <v>100</v>
@@ -1632,13 +1878,19 @@
         <v>0.7042253521126761</v>
       </c>
       <c r="E41">
-        <v>0.2795355688651893</v>
-      </c>
-      <c r="F41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.2799151374144457</v>
+      </c>
+      <c r="F41">
+        <v>63</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1652,13 +1904,19 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1672,18 +1930,24 @@
         <v>0.08450704225352113</v>
       </c>
       <c r="E43">
-        <v>0.08515845647424083</v>
-      </c>
-      <c r="F43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.08636681648731459</v>
+      </c>
+      <c r="F43">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.007217787745253241</v>
+        <v>0.00734944500284325</v>
       </c>
       <c r="C44">
         <v>49</v>
@@ -1692,18 +1956,24 @@
         <v>0.3450704225352113</v>
       </c>
       <c r="E44">
-        <v>0.1838757727815672</v>
-      </c>
-      <c r="F44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.1859605084152649</v>
+      </c>
+      <c r="F44">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.03668877988157991</v>
+        <v>0.03694780541905422</v>
       </c>
       <c r="C45">
         <v>37</v>
@@ -1712,13 +1982,19 @@
         <v>0.2605633802816901</v>
       </c>
       <c r="E45">
-        <v>0.09925874651773416</v>
-      </c>
-      <c r="F45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>0.1006923357995755</v>
+      </c>
+      <c r="F45">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1732,13 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1752,13 +2034,19 @@
         <v>0.01408450704225352</v>
       </c>
       <c r="E47">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1772,18 +2060,24 @@
         <v>0.02816901408450704</v>
       </c>
       <c r="E48">
-        <v>0.01058191010860589</v>
-      </c>
-      <c r="F48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.0106713966381799</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.0006870140067005867</v>
+        <v>0.0007402959449091056</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -1792,13 +2086,19 @@
         <v>0.04929577464788733</v>
       </c>
       <c r="E49">
-        <v>0.01058191010860589</v>
-      </c>
-      <c r="F49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.0106713966381799</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1812,18 +2112,24 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.0004527791722172021</v>
+        <v>0.0005017916577700814</v>
       </c>
       <c r="C51">
         <v>11</v>
@@ -1832,13 +2138,19 @@
         <v>0.07746478873239437</v>
       </c>
       <c r="E51">
-        <v>0.03797066013143842</v>
-      </c>
-      <c r="F51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.03846659104878034</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1852,13 +2164,19 @@
         <v>0.007042253521126761</v>
       </c>
       <c r="E52">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1872,13 +2190,19 @@
         <v>0.01408450704225352</v>
       </c>
       <c r="E53">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1892,38 +2216,50 @@
         <v>0.02112676056338028</v>
       </c>
       <c r="E54">
-        <v>0.000314978218168551</v>
-      </c>
-      <c r="F54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.0003220201218493174</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>59</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.001016552799876747</v>
+        <v>0.001357980949443498</v>
       </c>
       <c r="C55">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55">
-        <v>0.1408450704225352</v>
+        <v>0.1338028169014085</v>
       </c>
       <c r="E55">
-        <v>0.09587964142568993</v>
-      </c>
-      <c r="F55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.08291215631090616</v>
+      </c>
+      <c r="F55">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.001137892476268636</v>
+        <v>0.001134779398992247</v>
       </c>
       <c r="C56">
         <v>34</v>
@@ -1932,18 +2268,24 @@
         <v>0.2394366197183099</v>
       </c>
       <c r="E56">
-        <v>0.1860436253058839</v>
-      </c>
-      <c r="F56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.188650472195259</v>
+      </c>
+      <c r="F56">
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>61</v>
+      </c>
+      <c r="H56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.09678145383978239</v>
+        <v>0.09815326864010891</v>
       </c>
       <c r="C57">
         <v>89</v>
@@ -1952,18 +2294,24 @@
         <v>0.6267605633802817</v>
       </c>
       <c r="E57">
-        <v>0.2509819219342369</v>
-      </c>
-      <c r="F57" t="s">
+        <v>0.2516397065407394</v>
+      </c>
+      <c r="F57">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.02977209556103042</v>
+        <v>0.02987252027653992</v>
       </c>
       <c r="C58">
         <v>55</v>
@@ -1972,13 +2320,19 @@
         <v>0.3873239436619718</v>
       </c>
       <c r="E58">
-        <v>0.1971465080681739</v>
-      </c>
-      <c r="F58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.1971680197326728</v>
+      </c>
+      <c r="F58">
+        <v>34</v>
+      </c>
+      <c r="G58" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1992,18 +2346,24 @@
         <v>0.007042253521126761</v>
       </c>
       <c r="E59">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>64</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.006187559758147113</v>
+        <v>0.00634075953675894</v>
       </c>
       <c r="C60">
         <v>45</v>
@@ -2012,18 +2372,24 @@
         <v>0.3169014084507042</v>
       </c>
       <c r="E60">
-        <v>0.1544066152660989</v>
-      </c>
-      <c r="F60" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1568096322888126</v>
+      </c>
+      <c r="F60">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>65</v>
+      </c>
+      <c r="H60">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.009198676676718819</v>
+        <v>0.009797724539961625</v>
       </c>
       <c r="C61">
         <v>55</v>
@@ -2032,18 +2398,24 @@
         <v>0.3873239436619718</v>
       </c>
       <c r="E61">
-        <v>0.2001285086359355</v>
-      </c>
-      <c r="F61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.2009144781704665</v>
+      </c>
+      <c r="F61">
+        <v>31</v>
+      </c>
+      <c r="G61" t="s">
+        <v>66</v>
+      </c>
+      <c r="H61">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.0004701351157749119</v>
+        <v>0.0004930824566725077</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -2052,18 +2424,24 @@
         <v>0.04929577464788733</v>
       </c>
       <c r="E62">
-        <v>8.523288133113598e-11</v>
-      </c>
-      <c r="F62" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>9.0760643239103e-11</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>67</v>
+      </c>
+      <c r="H62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.005028036368468044</v>
+        <v>0.005008640421944878</v>
       </c>
       <c r="C63">
         <v>27</v>
@@ -2072,13 +2450,19 @@
         <v>0.1901408450704225</v>
       </c>
       <c r="E63">
-        <v>0.1128377317298677</v>
-      </c>
-      <c r="F63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.1144927357861966</v>
+      </c>
+      <c r="F63">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>68</v>
+      </c>
+      <c r="H63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2092,18 +2476,24 @@
         <v>0.01408450704225352</v>
       </c>
       <c r="E64">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>69</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.001505292575108844</v>
+        <v>0.001593757978228128</v>
       </c>
       <c r="C65">
         <v>29</v>
@@ -2112,13 +2502,19 @@
         <v>0.2042253521126761</v>
       </c>
       <c r="E65">
-        <v>0.1104779473389645</v>
-      </c>
-      <c r="F65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.111868581641186</v>
+      </c>
+      <c r="F65">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2132,13 +2528,19 @@
         <v>0.01408450704225352</v>
       </c>
       <c r="E66">
-        <v>1.66470471349875e-12</v>
-      </c>
-      <c r="F66" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>1.772668813263731e-12</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2152,18 +2554,24 @@
         <v>0.04225352112676056</v>
       </c>
       <c r="E67">
-        <v>0.005056491633590342</v>
-      </c>
-      <c r="F67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.00517010020359389</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.00198165563865925</v>
+        <v>0.001980545748427394</v>
       </c>
       <c r="C68">
         <v>8</v>
@@ -2172,13 +2580,19 @@
         <v>0.05633802816901409</v>
       </c>
       <c r="E68">
-        <v>3.27663828757959e-09</v>
-      </c>
-      <c r="F68" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>3.489144025147002e-09</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68" t="s">
+        <v>73</v>
+      </c>
+      <c r="H68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2192,13 +2606,19 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2212,18 +2632,24 @@
         <v>0.007042253521126761</v>
       </c>
       <c r="E70">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F70" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.007687155015036105</v>
+        <v>0.008744531328441583</v>
       </c>
       <c r="C71">
         <v>55</v>
@@ -2232,13 +2658,19 @@
         <v>0.3873239436619718</v>
       </c>
       <c r="E71">
-        <v>0.2361531010876399</v>
-      </c>
-      <c r="F71" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.2368914909682354</v>
+      </c>
+      <c r="F71">
+        <v>38</v>
+      </c>
+      <c r="G71" t="s">
+        <v>76</v>
+      </c>
+      <c r="H71">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2252,18 +2684,24 @@
         <v>0.02112676056338028</v>
       </c>
       <c r="E72">
-        <v>0.0003546629129037888</v>
-      </c>
-      <c r="F72" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.000365061916966585</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>77</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.0155445606137798</v>
+        <v>0.01558770743029256</v>
       </c>
       <c r="C73">
         <v>38</v>
@@ -2272,13 +2710,19 @@
         <v>0.2676056338028169</v>
       </c>
       <c r="E73">
-        <v>0.09736934663780619</v>
-      </c>
-      <c r="F73" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.09880476347237072</v>
+      </c>
+      <c r="F73">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>78</v>
+      </c>
+      <c r="H73">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2292,18 +2736,24 @@
         <v>0.0352112676056338</v>
       </c>
       <c r="E74">
-        <v>0.01548940356487897</v>
-      </c>
-      <c r="F74" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.01498965442433021</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74" t="s">
+        <v>79</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.01229735121061414</v>
+        <v>0.01241425345090733</v>
       </c>
       <c r="C75">
         <v>55</v>
@@ -2312,13 +2762,19 @@
         <v>0.3873239436619718</v>
       </c>
       <c r="E75">
-        <v>0.2092775540080558</v>
-      </c>
-      <c r="F75" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.2110196381349108</v>
+      </c>
+      <c r="F75">
+        <v>35</v>
+      </c>
+      <c r="G75" t="s">
+        <v>80</v>
+      </c>
+      <c r="H75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2332,13 +2788,19 @@
         <v>0.01408450704225352</v>
       </c>
       <c r="E76">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F76" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>81</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2352,13 +2814,19 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F77" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>82</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2372,13 +2840,19 @@
         <v>0.007042253521126761</v>
       </c>
       <c r="E78">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>83</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2392,13 +2866,19 @@
         <v>0.007042253521126761</v>
       </c>
       <c r="E79">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F79" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>84</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2412,13 +2892,19 @@
         <v>0.05633802816901409</v>
       </c>
       <c r="E80">
-        <v>4.363923524154162e-08</v>
-      </c>
-      <c r="F80" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>4.646944933842074e-08</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80" t="s">
+        <v>85</v>
+      </c>
+      <c r="H80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2432,13 +2918,19 @@
         <v>0.01408450704225352</v>
       </c>
       <c r="E81">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F81" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>86</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2452,13 +2944,19 @@
         <v>0.04929577464788733</v>
       </c>
       <c r="E82">
-        <v>0.00148298692218579</v>
-      </c>
-      <c r="F82" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.001513719410736124</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82" t="s">
+        <v>87</v>
+      </c>
+      <c r="H82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2472,13 +2970,19 @@
         <v>0.04225352112676056</v>
       </c>
       <c r="E83">
-        <v>0.0272062245430949</v>
-      </c>
-      <c r="F83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.02737603121987489</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83" t="s">
+        <v>88</v>
+      </c>
+      <c r="H83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2492,13 +2996,19 @@
         <v>0.02112676056338028</v>
       </c>
       <c r="E84">
-        <v>7.167554445615402e-05</v>
-      </c>
-      <c r="F84" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>3.829610561711838e-05</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>89</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2512,18 +3022,24 @@
         <v>0.02816901408450704</v>
       </c>
       <c r="E85">
-        <v>0.01358709939059337</v>
-      </c>
-      <c r="F85" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.01367282545603397</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85" t="s">
+        <v>90</v>
+      </c>
+      <c r="H85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.01048019797270621</v>
+        <v>0.01064990307198878</v>
       </c>
       <c r="C86">
         <v>10</v>
@@ -2532,33 +3048,45 @@
         <v>0.07042253521126761</v>
       </c>
       <c r="E86">
-        <v>0.001407045830096997</v>
-      </c>
-      <c r="F86" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.0007458443874518303</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.005990632724556287</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D87">
-        <v>0.1338028169014085</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="E87">
-        <v>0.06957428100400258</v>
-      </c>
-      <c r="F87" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>4.646944933842074e-08</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87" t="s">
+        <v>92</v>
+      </c>
+      <c r="H87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2572,33 +3100,45 @@
         <v>0.007042253521126761</v>
       </c>
       <c r="E88">
-        <v>1.66470471349875e-12</v>
-      </c>
-      <c r="F88" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>1.772668813263731e-12</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>93</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>0.006641473870964542</v>
       </c>
       <c r="C89">
+        <v>19</v>
+      </c>
+      <c r="D89">
+        <v>0.1338028169014085</v>
+      </c>
+      <c r="E89">
+        <v>0.06912731264110175</v>
+      </c>
+      <c r="F89">
         <v>8</v>
       </c>
-      <c r="D89">
-        <v>0.05633802816901409</v>
-      </c>
-      <c r="E89">
-        <v>4.363923524154162e-08</v>
-      </c>
-      <c r="F89" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89" t="s">
+        <v>94</v>
+      </c>
+      <c r="H89">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2606,19 +3146,25 @@
         <v>1.560783138547598e-05</v>
       </c>
       <c r="C90">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D90">
-        <v>0.09154929577464789</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="E90">
-        <v>0.0628050470326008</v>
-      </c>
-      <c r="F90" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.05010556668777631</v>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90" t="s">
+        <v>95</v>
+      </c>
+      <c r="H90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2632,33 +3178,45 @@
         <v>0.007042253521126761</v>
       </c>
       <c r="E91">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F91" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>96</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>0.0007169374581189485</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D92">
-        <v>0.007042253521126761</v>
+        <v>0.2042253521126761</v>
       </c>
       <c r="E92">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F92" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.103144667348067</v>
+      </c>
+      <c r="F92">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>97</v>
+      </c>
+      <c r="H92">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2672,13 +3230,19 @@
         <v>0.04929577464788733</v>
       </c>
       <c r="E93">
-        <v>0.002306510961796812</v>
-      </c>
-      <c r="F93" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.002352666184259636</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+      <c r="G93" t="s">
+        <v>98</v>
+      </c>
+      <c r="H93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2692,18 +3256,24 @@
         <v>0.04929577464788733</v>
       </c>
       <c r="E94">
-        <v>0.002306510961796812</v>
-      </c>
-      <c r="F94" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.002352666184259636</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
+      </c>
+      <c r="G94" t="s">
+        <v>99</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.0003010403563113084</v>
+        <v>0.0003119239099294329</v>
       </c>
       <c r="C95">
         <v>15</v>
@@ -2712,13 +3282,19 @@
         <v>0.1056338028169014</v>
       </c>
       <c r="E95">
-        <v>0.02825476725270036</v>
-      </c>
-      <c r="F95" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.02878941688373038</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+      <c r="G95" t="s">
+        <v>100</v>
+      </c>
+      <c r="H95">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2732,18 +3308,24 @@
         <v>0.02112676056338028</v>
       </c>
       <c r="E96">
-        <v>0.004960050647175323</v>
-      </c>
-      <c r="F96" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>0.005073025569128986</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>101</v>
+      </c>
+      <c r="H96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.002042450762099547</v>
+        <v>0.002126688452801876</v>
       </c>
       <c r="C97">
         <v>28</v>
@@ -2752,18 +3334,24 @@
         <v>0.1971830985915493</v>
       </c>
       <c r="E97">
-        <v>0.1251822269076721</v>
-      </c>
-      <c r="F97" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.1247018671966886</v>
+      </c>
+      <c r="F97">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>102</v>
+      </c>
+      <c r="H97">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.0005231424919767743</v>
+        <v>0.0005473679806913251</v>
       </c>
       <c r="C98">
         <v>6</v>
@@ -2772,13 +3360,19 @@
         <v>0.04225352112676056</v>
       </c>
       <c r="E98">
-        <v>0.0007890628673116747</v>
-      </c>
-      <c r="F98" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.000769649391023348</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>103</v>
+      </c>
+      <c r="H98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2792,13 +3386,19 @@
         <v>0.02112676056338028</v>
       </c>
       <c r="E99">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F99" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>104</v>
+      </c>
+      <c r="H99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2812,33 +3412,45 @@
         <v>0.05633802816901409</v>
       </c>
       <c r="E100">
-        <v>4.363923524154162e-08</v>
-      </c>
-      <c r="F100" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>4.646944933842074e-08</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100" t="s">
+        <v>105</v>
+      </c>
+      <c r="H100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.001905955356351097</v>
+        <v>0.001255114209942846</v>
       </c>
       <c r="C101">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D101">
-        <v>0.05633802816901409</v>
+        <v>0.04929577464788733</v>
       </c>
       <c r="E101">
-        <v>0.03236108457270048</v>
-      </c>
-      <c r="F101" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.01870625546804034</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101" t="s">
+        <v>106</v>
+      </c>
+      <c r="H101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2852,33 +3464,45 @@
         <v>0.1267605633802817</v>
       </c>
       <c r="E102">
-        <v>0.08395252387478203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.08530415169585873</v>
+      </c>
+      <c r="F102">
+        <v>9</v>
+      </c>
+      <c r="G102" t="s">
+        <v>107</v>
+      </c>
+      <c r="H102">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.0687956913762013</v>
+        <v>0.05020249297648232</v>
       </c>
       <c r="C103">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D103">
-        <v>0.6619718309859155</v>
+        <v>0.5985915492957746</v>
       </c>
       <c r="E103">
-        <v>0.2564118008592746</v>
-      </c>
-      <c r="F103" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.2602534976792741</v>
+      </c>
+      <c r="F103">
+        <v>52</v>
+      </c>
+      <c r="G103" t="s">
+        <v>108</v>
+      </c>
+      <c r="H103">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2892,13 +3516,19 @@
         <v>0.1690140845070423</v>
       </c>
       <c r="E104">
-        <v>0.1296889264969382</v>
-      </c>
-      <c r="F104" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>0.1314911820674636</v>
+      </c>
+      <c r="F104">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s">
+        <v>109</v>
+      </c>
+      <c r="H104">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2912,13 +3542,19 @@
         <v>0.05633802816901409</v>
       </c>
       <c r="E105">
-        <v>0.03031278304894415</v>
-      </c>
-      <c r="F105" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>0.03082029257340436</v>
+      </c>
+      <c r="F105">
+        <v>5</v>
+      </c>
+      <c r="G105" t="s">
+        <v>110</v>
+      </c>
+      <c r="H105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2932,13 +3568,19 @@
         <v>0.02816901408450704</v>
       </c>
       <c r="E106">
-        <v>8.523288133113598e-11</v>
-      </c>
-      <c r="F106" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>9.0760643239103e-11</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2952,13 +3594,19 @@
         <v>0.02816901408450704</v>
       </c>
       <c r="E107">
-        <v>0.01237370875570468</v>
-      </c>
-      <c r="F107" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>0.0126455240784329</v>
+      </c>
+      <c r="F107">
+        <v>4</v>
+      </c>
+      <c r="G107" t="s">
+        <v>112</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2972,13 +3620,19 @@
         <v>0.01408450704225352</v>
       </c>
       <c r="E108">
-        <v>1.66470471349875e-12</v>
-      </c>
-      <c r="F108" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>1.772668813263731e-12</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" t="s">
+        <v>113</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2992,38 +3646,50 @@
         <v>0.05633802816901409</v>
       </c>
       <c r="E109">
-        <v>0.01424846252760566</v>
-      </c>
-      <c r="F109" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>0.01441215570447869</v>
+      </c>
+      <c r="F109">
+        <v>3</v>
+      </c>
+      <c r="G109" t="s">
+        <v>114</v>
+      </c>
+      <c r="H109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.0004828932596850044</v>
+        <v>0.0005128010535891666</v>
       </c>
       <c r="C110">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D110">
-        <v>0.1056338028169014</v>
+        <v>0.09859154929577466</v>
       </c>
       <c r="E110">
-        <v>0.05881259188178595</v>
-      </c>
-      <c r="F110" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>0.04608679964549956</v>
+      </c>
+      <c r="F110">
+        <v>5</v>
+      </c>
+      <c r="G110" t="s">
+        <v>115</v>
+      </c>
+      <c r="H110">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.09364473741909844</v>
+        <v>0.09559143316483766</v>
       </c>
       <c r="C111">
         <v>114</v>
@@ -3032,13 +3698,19 @@
         <v>0.8028169014084507</v>
       </c>
       <c r="E111">
-        <v>0.2777749681329988</v>
-      </c>
-      <c r="F111" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>0.2761078814709139</v>
+      </c>
+      <c r="F111">
+        <v>87</v>
+      </c>
+      <c r="G111" t="s">
+        <v>116</v>
+      </c>
+      <c r="H111">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3052,13 +3724,19 @@
         <v>0.01408450704225352</v>
       </c>
       <c r="E112">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F112" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>117</v>
+      </c>
+      <c r="H112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3072,18 +3750,24 @@
         <v>0.01408450704225352</v>
       </c>
       <c r="E113">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F113" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113" t="s">
+        <v>118</v>
+      </c>
+      <c r="H113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.000766103570781583</v>
+        <v>0.0007672134610134392</v>
       </c>
       <c r="C114">
         <v>4</v>
@@ -3092,13 +3776,19 @@
         <v>0.02816901408450704</v>
       </c>
       <c r="E114">
-        <v>4.91487419613371e-09</v>
-      </c>
-      <c r="F114" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>5.23362740427984e-09</v>
+      </c>
+      <c r="F114">
+        <v>3</v>
+      </c>
+      <c r="G114" t="s">
+        <v>119</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3112,13 +3802,19 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F115" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>120</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3132,13 +3828,19 @@
         <v>0.0352112676056338</v>
       </c>
       <c r="E116">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F116" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>121</v>
+      </c>
+      <c r="H116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3152,18 +3854,24 @@
         <v>0.007042253521126761</v>
       </c>
       <c r="E117">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F117" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>122</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.006963244526924479</v>
+        <v>0.007013372952090363</v>
       </c>
       <c r="C118">
         <v>8</v>
@@ -3172,38 +3880,50 @@
         <v>0.05633802816901409</v>
       </c>
       <c r="E118">
-        <v>0.006183504929958529</v>
-      </c>
-      <c r="F118" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>0.006271999432058738</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118" t="s">
+        <v>123</v>
+      </c>
+      <c r="H118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.00138786395903567</v>
+        <v>0.0009870191273279455</v>
       </c>
       <c r="C119">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D119">
-        <v>0.05633802816901409</v>
+        <v>0.04929577464788733</v>
       </c>
       <c r="E119">
-        <v>0.05308113052368645</v>
-      </c>
-      <c r="F119" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>0.0403021832394385</v>
+      </c>
+      <c r="F119">
+        <v>4</v>
+      </c>
+      <c r="G119" t="s">
+        <v>124</v>
+      </c>
+      <c r="H119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.01379488480586222</v>
+        <v>0.01393834754711493</v>
       </c>
       <c r="C120">
         <v>36</v>
@@ -3212,13 +3932,19 @@
         <v>0.2535211267605634</v>
       </c>
       <c r="E120">
-        <v>0.1210709304482162</v>
-      </c>
-      <c r="F120" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>0.1218337884103059</v>
+      </c>
+      <c r="F120">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s">
+        <v>125</v>
+      </c>
+      <c r="H120">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3232,13 +3958,19 @@
         <v>0</v>
       </c>
       <c r="E121">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F121" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121" t="s">
+        <v>126</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3252,13 +3984,19 @@
         <v>0.04225352112676056</v>
       </c>
       <c r="E122">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F122" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122" t="s">
+        <v>127</v>
+      </c>
+      <c r="H122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3272,18 +4010,24 @@
         <v>0.09859154929577466</v>
       </c>
       <c r="E123">
-        <v>0.0002575898883831386</v>
-      </c>
-      <c r="F123" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>0.000265461193457601</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123" t="s">
+        <v>128</v>
+      </c>
+      <c r="H123">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.006310201635343978</v>
+        <v>0.00631139080344954</v>
       </c>
       <c r="C124">
         <v>13</v>
@@ -3292,18 +4036,24 @@
         <v>0.09154929577464789</v>
       </c>
       <c r="E124">
-        <v>0.006962554208045255</v>
-      </c>
-      <c r="F124" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>0.007110361956631559</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124" t="s">
+        <v>129</v>
+      </c>
+      <c r="H124">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.003591296642975533</v>
+        <v>0.003578760570237262</v>
       </c>
       <c r="C125">
         <v>40</v>
@@ -3312,13 +4062,19 @@
         <v>0.2816901408450704</v>
       </c>
       <c r="E125">
-        <v>0.1633539049118004</v>
-      </c>
-      <c r="F125" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>0.1652521690231221</v>
+      </c>
+      <c r="F125">
+        <v>23</v>
+      </c>
+      <c r="G125" t="s">
+        <v>130</v>
+      </c>
+      <c r="H125">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3332,18 +4088,24 @@
         <v>0.04225352112676056</v>
       </c>
       <c r="E126">
-        <v>0.005056491633590342</v>
-      </c>
-      <c r="F126" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>0.00517010020359389</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126" t="s">
+        <v>131</v>
+      </c>
+      <c r="H126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.0004419345069629756</v>
+        <v>0.0004992956521275371</v>
       </c>
       <c r="C127">
         <v>7</v>
@@ -3352,13 +4114,19 @@
         <v>0.04929577464788733</v>
       </c>
       <c r="E127">
-        <v>0.005192767221732987</v>
-      </c>
-      <c r="F127" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>0.004509815343431987</v>
+      </c>
+      <c r="F127">
+        <v>3</v>
+      </c>
+      <c r="G127" t="s">
+        <v>132</v>
+      </c>
+      <c r="H127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3372,18 +4140,24 @@
         <v>0.01408450704225352</v>
       </c>
       <c r="E128">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F128" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128" t="s">
+        <v>133</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>2.497253021676156e-05</v>
+        <v>0.0001717409095608865</v>
       </c>
       <c r="C129">
         <v>6</v>
@@ -3392,13 +4166,19 @@
         <v>0.04225352112676056</v>
       </c>
       <c r="E129">
-        <v>0.0004606446118569579</v>
-      </c>
-      <c r="F129" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>0.0004731212234492792</v>
+      </c>
+      <c r="F129">
+        <v>2</v>
+      </c>
+      <c r="G129" t="s">
+        <v>134</v>
+      </c>
+      <c r="H129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3412,13 +4192,19 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F130" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130" t="s">
+        <v>135</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3432,13 +4218,19 @@
         <v>0.007042253521126761</v>
       </c>
       <c r="E131">
-        <v>1.66470471349875e-12</v>
-      </c>
-      <c r="F131" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>1.772668813263731e-12</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131" t="s">
+        <v>136</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3452,13 +4244,19 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F132" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
+        <v>137</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3466,19 +4264,25 @@
         <v>0</v>
       </c>
       <c r="C133">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D133">
-        <v>0.04225352112676056</v>
+        <v>0.0352112676056338</v>
       </c>
       <c r="E133">
-        <v>0.02747685607945629</v>
-      </c>
-      <c r="F133" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>0.01444917332146264</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133" t="s">
+        <v>138</v>
+      </c>
+      <c r="H133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3492,18 +4296,24 @@
         <v>0.007042253521126761</v>
       </c>
       <c r="E134">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F134" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134" t="s">
+        <v>139</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.002163523439587985</v>
+        <v>0.002243414834164805</v>
       </c>
       <c r="C135">
         <v>33</v>
@@ -3512,18 +4322,24 @@
         <v>0.2323943661971831</v>
       </c>
       <c r="E135">
-        <v>0.1662858474848754</v>
-      </c>
-      <c r="F135" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>0.1686111444359756</v>
+      </c>
+      <c r="F135">
+        <v>21</v>
+      </c>
+      <c r="G135" t="s">
+        <v>140</v>
+      </c>
+      <c r="H135">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.002087511237477568</v>
+        <v>0.002155173793902486</v>
       </c>
       <c r="C136">
         <v>31</v>
@@ -3532,33 +4348,45 @@
         <v>0.2183098591549296</v>
       </c>
       <c r="E136">
-        <v>0.08940919854311472</v>
-      </c>
-      <c r="F136" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>0.0908316837441045</v>
+      </c>
+      <c r="F136">
+        <v>11</v>
+      </c>
+      <c r="G136" t="s">
+        <v>141</v>
+      </c>
+      <c r="H136">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.000685561086144479</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>0.2042253521126761</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="E137">
-        <v>0.1025960198396654</v>
-      </c>
-      <c r="F137" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137" t="s">
+        <v>142</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3572,18 +4400,24 @@
         <v>0.01408450704225352</v>
       </c>
       <c r="E138">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F138" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138" t="s">
+        <v>143</v>
+      </c>
+      <c r="H138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.005638552498433476</v>
+        <v>0.005798041814291576</v>
       </c>
       <c r="C139">
         <v>13</v>
@@ -3592,13 +4426,19 @@
         <v>0.09154929577464789</v>
       </c>
       <c r="E139">
-        <v>0.01447209277810142</v>
-      </c>
-      <c r="F139" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>0.01464198085860856</v>
+      </c>
+      <c r="F139">
+        <v>5</v>
+      </c>
+      <c r="G139" t="s">
+        <v>144</v>
+      </c>
+      <c r="H139">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3612,13 +4452,19 @@
         <v>0.007042253521126761</v>
       </c>
       <c r="E140">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F140" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140" t="s">
+        <v>145</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3632,18 +4478,24 @@
         <v>0.02816901408450704</v>
       </c>
       <c r="E141">
-        <v>0.02428272879127368</v>
-      </c>
-      <c r="F141" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>0.02449557211255045</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141" t="s">
+        <v>146</v>
+      </c>
+      <c r="H141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>9.989012086704625e-06</v>
+        <v>6.280969721185483e-05</v>
       </c>
       <c r="C142">
         <v>8</v>
@@ -3652,13 +4504,19 @@
         <v>0.05633802816901409</v>
       </c>
       <c r="E142">
-        <v>0.00148298692218579</v>
-      </c>
-      <c r="F142" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+        <v>0.001513719410736124</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142" t="s">
+        <v>147</v>
+      </c>
+      <c r="H142">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3672,13 +4530,19 @@
         <v>0.007042253521126761</v>
       </c>
       <c r="E143">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F143" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143" t="s">
+        <v>148</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3692,10 +4556,16 @@
         <v>0</v>
       </c>
       <c r="E144">
-        <v>1.66470471349875e-13</v>
-      </c>
-      <c r="F144" t="s">
-        <v>147</v>
+        <v>1.77266881326373e-13</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144" t="s">
+        <v>149</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/Data/Star_Wars_Episode_III_Revenge_of_the_Sith/centrality.xlsx
+++ b/notebooks/Data/Star_Wars_Episode_III_Revenge_of_the_Sith/centrality.xlsx
@@ -43,51 +43,51 @@
     <t>Gregar Typho</t>
   </si>
   <si>
+    <t>Ask Aak</t>
+  </si>
+  <si>
+    <t>Leia Organa</t>
+  </si>
+  <si>
+    <t>Sly Moore</t>
+  </si>
+  <si>
+    <t>Luminara Unduli</t>
+  </si>
+  <si>
+    <t>Passel Argente</t>
+  </si>
+  <si>
+    <t>Jag</t>
+  </si>
+  <si>
+    <t>Bana Breemu</t>
+  </si>
+  <si>
+    <t>Umé</t>
+  </si>
+  <si>
+    <t>Neb Creip</t>
+  </si>
+  <si>
+    <t>J'oopi Shé</t>
+  </si>
+  <si>
+    <t>Meena Tills</t>
+  </si>
+  <si>
+    <t>Tion Medon</t>
+  </si>
+  <si>
+    <t>Giddean Danu</t>
+  </si>
+  <si>
+    <t>Barrow Oicunn</t>
+  </si>
+  <si>
     <t>Zett Jukassa</t>
   </si>
   <si>
-    <t>Leia Organa</t>
-  </si>
-  <si>
-    <t>Sly Moore</t>
-  </si>
-  <si>
-    <t>Luminara Unduli</t>
-  </si>
-  <si>
-    <t>Passel Argente</t>
-  </si>
-  <si>
-    <t>Jag</t>
-  </si>
-  <si>
-    <t>Bana Breemu</t>
-  </si>
-  <si>
-    <t>Umé</t>
-  </si>
-  <si>
-    <t>Neb Creip</t>
-  </si>
-  <si>
-    <t>J'oopi Shé</t>
-  </si>
-  <si>
-    <t>Meena Tills</t>
-  </si>
-  <si>
-    <t>Tion Medon</t>
-  </si>
-  <si>
-    <t>Giddean Danu</t>
-  </si>
-  <si>
-    <t>Barrow Oicunn</t>
-  </si>
-  <si>
-    <t>Ask Aak</t>
-  </si>
-  <si>
     <t>Bail Organa</t>
   </si>
   <si>
@@ -292,157 +292,157 @@
     <t>Tundra Dowmeia</t>
   </si>
   <si>
+    <t>Wat Tambor</t>
+  </si>
+  <si>
+    <t>Dznori Xam</t>
+  </si>
+  <si>
     <t>Teta (Duke)</t>
   </si>
   <si>
-    <t>Dznori Xam</t>
-  </si>
-  <si>
-    <t>Wat Tambor</t>
-  </si>
-  <si>
     <t>Agen Kolar</t>
   </si>
   <si>
     <t>Eeusu Estornii</t>
   </si>
   <si>
+    <t>Sheltay Retrac</t>
+  </si>
+  <si>
+    <t>Ryoo Naberrie</t>
+  </si>
+  <si>
+    <t>Pooja Naberrie</t>
+  </si>
+  <si>
+    <t>CC-1004</t>
+  </si>
+  <si>
+    <t>CC-1138</t>
+  </si>
+  <si>
+    <t>Quinlan Vos</t>
+  </si>
+  <si>
+    <t>Terr Taneel</t>
+  </si>
+  <si>
+    <t>Waks Trode</t>
+  </si>
+  <si>
+    <t>Koyi Mateil</t>
+  </si>
+  <si>
+    <t>CC-5052</t>
+  </si>
+  <si>
+    <t>Owen Lars</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>Shmi Skywalker Lars</t>
+  </si>
+  <si>
+    <t>Tarfful</t>
+  </si>
+  <si>
+    <t>R4-G9</t>
+  </si>
+  <si>
+    <t>Sio Bibble</t>
+  </si>
+  <si>
+    <t>Sistros</t>
+  </si>
+  <si>
+    <t>Jobal Naberrie</t>
+  </si>
+  <si>
+    <t>Orn Free Taa</t>
+  </si>
+  <si>
+    <t>Darth Sidious</t>
+  </si>
+  <si>
+    <t>Greeata Jendowanian</t>
+  </si>
+  <si>
+    <t>Malé-Dee</t>
+  </si>
+  <si>
+    <t>Melik Galerha</t>
+  </si>
+  <si>
+    <t>Grakchawwaa</t>
+  </si>
+  <si>
+    <t>CT-0000/1010</t>
+  </si>
+  <si>
+    <t>0D31</t>
+  </si>
+  <si>
+    <t>Stass Allie</t>
+  </si>
+  <si>
+    <t>Papanoida</t>
+  </si>
+  <si>
+    <t>Kit Fisto</t>
+  </si>
+  <si>
+    <t>Eugroothwa</t>
+  </si>
+  <si>
+    <t>Fang Zar</t>
+  </si>
+  <si>
+    <t>Coleman Kcaj</t>
+  </si>
+  <si>
+    <t>Rune Haako</t>
+  </si>
+  <si>
+    <t>Luke Skywalker</t>
+  </si>
+  <si>
+    <t>CC-4477</t>
+  </si>
+  <si>
+    <t>Shu Mai</t>
+  </si>
+  <si>
+    <t>Nank Tun</t>
+  </si>
+  <si>
+    <t>CC-1119</t>
+  </si>
+  <si>
+    <t>Salporin</t>
+  </si>
+  <si>
+    <t>Yanjon</t>
+  </si>
+  <si>
+    <t>Janu Godalhi</t>
+  </si>
+  <si>
+    <t>CC-2237</t>
+  </si>
+  <si>
+    <t>Sateen Vestswe</t>
+  </si>
+  <si>
+    <t>Wilhuff Tarkin</t>
+  </si>
+  <si>
+    <t>Mon Mothma</t>
+  </si>
+  <si>
     <t>Shaak Ti</t>
-  </si>
-  <si>
-    <t>Ryoo Naberrie</t>
-  </si>
-  <si>
-    <t>Pooja Naberrie</t>
-  </si>
-  <si>
-    <t>CC-1004</t>
-  </si>
-  <si>
-    <t>CC-1138</t>
-  </si>
-  <si>
-    <t>Quinlan Vos</t>
-  </si>
-  <si>
-    <t>Terr Taneel</t>
-  </si>
-  <si>
-    <t>Waks Trode</t>
-  </si>
-  <si>
-    <t>Koyi Mateil</t>
-  </si>
-  <si>
-    <t>CC-5052</t>
-  </si>
-  <si>
-    <t>Owen Lars</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>Shmi Skywalker Lars</t>
-  </si>
-  <si>
-    <t>Tarfful</t>
-  </si>
-  <si>
-    <t>R4-G9</t>
-  </si>
-  <si>
-    <t>Sio Bibble</t>
-  </si>
-  <si>
-    <t>Sistros</t>
-  </si>
-  <si>
-    <t>Jobal Naberrie</t>
-  </si>
-  <si>
-    <t>Orn Free Taa</t>
-  </si>
-  <si>
-    <t>Darth Sidious</t>
-  </si>
-  <si>
-    <t>Greeata Jendowanian</t>
-  </si>
-  <si>
-    <t>Malé-Dee</t>
-  </si>
-  <si>
-    <t>Melik Galerha</t>
-  </si>
-  <si>
-    <t>Grakchawwaa</t>
-  </si>
-  <si>
-    <t>CT-0000/1010</t>
-  </si>
-  <si>
-    <t>0D31</t>
-  </si>
-  <si>
-    <t>Stass Allie</t>
-  </si>
-  <si>
-    <t>Papanoida</t>
-  </si>
-  <si>
-    <t>Kit Fisto</t>
-  </si>
-  <si>
-    <t>Eugroothwa</t>
-  </si>
-  <si>
-    <t>Fang Zar</t>
-  </si>
-  <si>
-    <t>Coleman Kcaj</t>
-  </si>
-  <si>
-    <t>Rune Haako</t>
-  </si>
-  <si>
-    <t>Luke Skywalker</t>
-  </si>
-  <si>
-    <t>CC-4477</t>
-  </si>
-  <si>
-    <t>Shu Mai</t>
-  </si>
-  <si>
-    <t>Nank Tun</t>
-  </si>
-  <si>
-    <t>CC-1119</t>
-  </si>
-  <si>
-    <t>Salporin</t>
-  </si>
-  <si>
-    <t>Yanjon</t>
-  </si>
-  <si>
-    <t>Janu Godalhi</t>
-  </si>
-  <si>
-    <t>CC-2237</t>
-  </si>
-  <si>
-    <t>Sateen Vestswe</t>
-  </si>
-  <si>
-    <t>Wilhuff Tarkin</t>
-  </si>
-  <si>
-    <t>Mon Mothma</t>
-  </si>
-  <si>
-    <t>Sheltay Retrac</t>
   </si>
   <si>
     <t>Cat Miin</t>
@@ -890,7 +890,7 @@
         <v>0.09154929577464789</v>
       </c>
       <c r="E3">
-        <v>0.05445675274586535</v>
+        <v>0.05445675274586533</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -907,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.006255618819298771</v>
+        <v>0.0003405188414178525</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -916,16 +916,16 @@
         <v>0.04929577464788733</v>
       </c>
       <c r="E4">
-        <v>0.009214527369336327</v>
+        <v>0.005073025570724389</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1271,7 +1271,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.0003405188414178525</v>
+        <v>0.006255618819298771</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -1280,16 +1280,16 @@
         <v>0.04929577464788733</v>
       </c>
       <c r="E18">
-        <v>0.005073025570724388</v>
+        <v>0.009214527369336327</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" t="s">
         <v>23</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1462,7 +1462,7 @@
         <v>0.1267605633802817</v>
       </c>
       <c r="E25">
-        <v>0.05460153584238551</v>
+        <v>0.05460153584238549</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -1514,7 +1514,7 @@
         <v>0.2887323943661972</v>
       </c>
       <c r="E27">
-        <v>0.1698786606999852</v>
+        <v>0.1698786606999853</v>
       </c>
       <c r="F27">
         <v>27</v>
@@ -1869,7 +1869,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.06647462340930102</v>
+        <v>0.06647462340930101</v>
       </c>
       <c r="C41">
         <v>100</v>
@@ -1947,7 +1947,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.00734944500284325</v>
+        <v>0.007349445002843251</v>
       </c>
       <c r="C44">
         <v>49</v>
@@ -1973,7 +1973,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.03694780541905422</v>
+        <v>0.03694780541905423</v>
       </c>
       <c r="C45">
         <v>37</v>
@@ -2060,7 +2060,7 @@
         <v>0.02816901408450704</v>
       </c>
       <c r="E48">
-        <v>0.0106713966381799</v>
+        <v>0.01067139663817989</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -2086,7 +2086,7 @@
         <v>0.04929577464788733</v>
       </c>
       <c r="E49">
-        <v>0.0106713966381799</v>
+        <v>0.01067139663817989</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -2242,7 +2242,7 @@
         <v>0.1338028169014085</v>
       </c>
       <c r="E55">
-        <v>0.08291215631090616</v>
+        <v>0.08291215631090615</v>
       </c>
       <c r="F55">
         <v>9</v>
@@ -2389,7 +2389,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.009797724539961625</v>
+        <v>0.009797724539961626</v>
       </c>
       <c r="C61">
         <v>55</v>
@@ -2649,7 +2649,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.008744531328441583</v>
+        <v>0.008744531328441585</v>
       </c>
       <c r="C71">
         <v>55</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>0.006641473870964542</v>
       </c>
       <c r="C87">
+        <v>19</v>
+      </c>
+      <c r="D87">
+        <v>0.1338028169014085</v>
+      </c>
+      <c r="E87">
+        <v>0.06912731264110175</v>
+      </c>
+      <c r="F87">
         <v>8</v>
-      </c>
-      <c r="D87">
-        <v>0.05633802816901409</v>
-      </c>
-      <c r="E87">
-        <v>4.646944933842074e-08</v>
-      </c>
-      <c r="F87">
-        <v>3</v>
       </c>
       <c r="G87" t="s">
         <v>92</v>
       </c>
       <c r="H87">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3117,25 +3117,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.006641473870964542</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D89">
-        <v>0.1338028169014085</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="E89">
-        <v>0.06912731264110175</v>
+        <v>4.646944933842074e-08</v>
       </c>
       <c r="F89">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G89" t="s">
         <v>94</v>
       </c>
       <c r="H89">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3152,7 +3152,7 @@
         <v>0.08450704225352113</v>
       </c>
       <c r="E90">
-        <v>0.05010556668777631</v>
+        <v>0.05010556668777629</v>
       </c>
       <c r="F90">
         <v>5</v>
@@ -3195,25 +3195,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.0007169374581189485</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>0.2042253521126761</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="E92">
-        <v>0.103144667348067</v>
+        <v>1.77266881326373e-13</v>
       </c>
       <c r="F92">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G92" t="s">
         <v>97</v>
       </c>
       <c r="H92">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3308,7 +3308,7 @@
         <v>0.02112676056338028</v>
       </c>
       <c r="E96">
-        <v>0.005073025569128986</v>
+        <v>0.005073025569128987</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -3334,7 +3334,7 @@
         <v>0.1971830985915493</v>
       </c>
       <c r="E97">
-        <v>0.1247018671966886</v>
+        <v>0.1247018671966885</v>
       </c>
       <c r="F97">
         <v>14</v>
@@ -3360,7 +3360,7 @@
         <v>0.04225352112676056</v>
       </c>
       <c r="E98">
-        <v>0.000769649391023348</v>
+        <v>0.0007696493910233482</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -3464,7 +3464,7 @@
         <v>0.1267605633802817</v>
       </c>
       <c r="E102">
-        <v>0.08530415169585873</v>
+        <v>0.08530415169585871</v>
       </c>
       <c r="F102">
         <v>9</v>
@@ -3672,7 +3672,7 @@
         <v>0.09859154929577466</v>
       </c>
       <c r="E110">
-        <v>0.04608679964549956</v>
+        <v>0.04608679964549955</v>
       </c>
       <c r="F110">
         <v>5</v>
@@ -3776,7 +3776,7 @@
         <v>0.02816901408450704</v>
       </c>
       <c r="E114">
-        <v>5.23362740427984e-09</v>
+        <v>5.233627404279839e-09</v>
       </c>
       <c r="F114">
         <v>3</v>
@@ -4036,7 +4036,7 @@
         <v>0.09154929577464789</v>
       </c>
       <c r="E124">
-        <v>0.007110361956631559</v>
+        <v>0.00711036195663156</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -4313,7 +4313,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.002243414834164805</v>
+        <v>0.002243414834164804</v>
       </c>
       <c r="C135">
         <v>33</v>
@@ -4322,7 +4322,7 @@
         <v>0.2323943661971831</v>
       </c>
       <c r="E135">
-        <v>0.1686111444359756</v>
+        <v>0.1686111444359755</v>
       </c>
       <c r="F135">
         <v>21</v>
@@ -4348,7 +4348,7 @@
         <v>0.2183098591549296</v>
       </c>
       <c r="E136">
-        <v>0.0908316837441045</v>
+        <v>0.09083168374410448</v>
       </c>
       <c r="F136">
         <v>11</v>
@@ -4365,25 +4365,25 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>0.0007169374581189485</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D137">
-        <v>0.007042253521126761</v>
+        <v>0.2042253521126761</v>
       </c>
       <c r="E137">
-        <v>1.77266881326373e-13</v>
+        <v>0.103144667348067</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G137" t="s">
         <v>142</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4478,7 +4478,7 @@
         <v>0.02816901408450704</v>
       </c>
       <c r="E141">
-        <v>0.02449557211255045</v>
+        <v>0.02449557211255044</v>
       </c>
       <c r="F141">
         <v>2</v>
